--- a/public/excel/UploadPenerimaanBonusMember.xlsx
+++ b/public/excel/UploadPenerimaanBonusMember.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>No</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>No Rekening</t>
+  </si>
+  <si>
+    <t>Nama Bank</t>
+  </si>
+  <si>
+    <t>Bank Royal</t>
   </si>
 </sst>
 </file>
@@ -438,45 +444,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
         <v>1234</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>10000</v>
       </c>
     </row>
